--- a/Extractions/National Ethics Commitee/Data collection form V2_NATIONALETHICSCOMMITTEE.xlsx
+++ b/Extractions/National Ethics Commitee/Data collection form V2_NATIONALETHICSCOMMITTEE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github PC\NHMRC-Data-sharing-policies\Extractions\National Ethics Commitee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07971E4-CD24-4411-9458-939912CACA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4629BE38-5D6E-4EF2-A778-9DD5114A7F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="4080" windowWidth="19230" windowHeight="15435" tabRatio="641" xr2:uid="{DF743565-50AB-481E-9300-1D798D3C4A79}"/>
+    <workbookView xWindow="19275" yWindow="3240" windowWidth="19230" windowHeight="15435" tabRatio="641" xr2:uid="{DF743565-50AB-481E-9300-1D798D3C4A79}"/>
   </bookViews>
   <sheets>
     <sheet name="National ethics committees" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="604">
   <si>
     <t>France</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Consejo Nacional de Investigación en Salud (CONIS)</t>
   </si>
   <si>
-    <t>https://www.ministeriodesalud.go.cr/index.php/consejos/conis</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -592,9 +589,6 @@
     <t xml:space="preserve">Research Ethics Committee of the National Institute for Health Development (NIHD REC) </t>
   </si>
   <si>
-    <t>https://www.tai.ee/en/about-us/tallinn-medical-research-ethics-commitee</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -658,9 +652,6 @@
     <t>The German Ethics Council</t>
   </si>
   <si>
-    <t>http://www.ethikrat.org</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -713,9 +704,6 @@
   </si>
   <si>
     <t>National Ethics Committee, Ministry of Science and Technology, Department of Biotechnology</t>
-  </si>
-  <si>
-    <t>http://dbtindia.gov.in/genesis-and-implementation</t>
   </si>
   <si>
     <t>National Commission on Ethics of Health</t>
@@ -894,9 +882,6 @@
     <t>The Health Council of the Netherlands</t>
   </si>
   <si>
-    <t>https://www.healthcouncil.nl/</t>
-  </si>
-  <si>
     <t>National Ethics Advisory Committee (NEAC)</t>
   </si>
   <si>
@@ -1085,9 +1070,6 @@
   </si>
   <si>
     <t>South African Medical Research Council Ethics Committee</t>
-  </si>
-  <si>
-    <t>http://www.mrc.ac.za/research/ethics/about</t>
   </si>
   <si>
     <t>The National Health Research Ethics Council</t>
@@ -1408,9 +1390,6 @@
     <t>Information not found</t>
   </si>
   <si>
-    <t>Cannot find information source or website</t>
-  </si>
-  <si>
     <t>Catalan</t>
   </si>
   <si>
@@ -1687,6 +1666,231 @@
   </si>
   <si>
     <t>Apt. 11, F. Khodjaev Street, 700109, Tashkent, Sabir Rakhimov, Uzbekistan.</t>
+  </si>
+  <si>
+    <t>NO WEBSITE</t>
+  </si>
+  <si>
+    <t>Portugese</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>https://cihr-irsc.gc.ca/e/52212.html
+https://www.rd-alliance.org/group/rda-covid19-rda-covid19-omics-rda-covid19-epidemiology-rda-covid19-clinical-rda-covid19-1</t>
+  </si>
+  <si>
+    <t>WEBSITE UNDER CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>No. 1, Xizhimenwai South Road, Xicheng District, Beijing Postcode
+: 100044</t>
+  </si>
+  <si>
+    <t>Cannot find information source or website - NO EXISTING DATA SOURCE</t>
+  </si>
+  <si>
+    <t>https://www.ministeriodesalud.go.cr/index.php/consejos/conis
+https://www.ministeriodesalud.go.cr/</t>
+  </si>
+  <si>
+    <t>WEBSITE EMPTY</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Is this not the same as above?</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>I don’t think this is the official website</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>There is no way the official website is a facebook page…</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>https://www.tai.ee/en/about-us/tallinn-medical-research-ethics-committee
+https://en.tai.ee/en/about-us/tallinn-medical-research-ethics-committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link does not work
+</t>
+  </si>
+  <si>
+    <t>https://etene.fi/en/search?q=data%20sharing</t>
+  </si>
+  <si>
+    <t>http://www.ethikrat.org
+https://www.ethikrat.org/en/?cookieLevel=not-set&amp;cHash=4cedc8fcdda0b368d4409bb0febbe036</t>
+  </si>
+  <si>
+    <t>https://www.ethikrat.org/en/topics/research-and-technology/big-data/?cookieLevel=not-set&amp;cHash=6829c65267163dd78ed94314feba9890</t>
+  </si>
+  <si>
+    <t>WEBSITE NO AVAIL</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>http://dbtindia.gov.in/genesis-and-implementation
+https://dbtindia.gov.in/latest-announcement/biological-data-storage-access-and-sharing-policy-india</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>CANNOT ACCESS WEIBSOUTE OUTSIDE IRAN</t>
+  </si>
+  <si>
+    <t>https://www.irishstatutebook.ie/eli/2019/act/5/enacted/en/html</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>site doesn’t exist / nil information found</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>CANNOT NAVIGATE</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>CANNOT ACCESS LINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK NOT WORKING
+</t>
+  </si>
+  <si>
+    <t>WEBSITE?</t>
+  </si>
+  <si>
+    <t>https://www.healthcouncil.nl/
+https://www.healthcouncil.nl/documents/advisory-reports/2008/10/29/securing-the-data-supply-the-availability-of-population-health-information-in-the-netherlands-now-and-in-the-future</t>
+  </si>
+  <si>
+    <t>https://www.healthcouncil.nl/binaries/healthcouncil/documents/advisory-reports/2008/10/29/securing-the-data-supply-the-availability-of-population-health-information-in-the-netherlands-now-and-in-the-future/summary-securing-the-data-supply-the-availability-of-population-health-information-in-the-netherlands-now-and-in-the-future.pdf</t>
+  </si>
+  <si>
+    <t>https://neac.health.govt.nz/national-ethical-standards/part-two/12-health-data/
+https://neac.health.govt.nz/national-ethical-standards/part-two/15-biobanks/</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>LINK INCORRECT</t>
+  </si>
+  <si>
+    <t>Linked to "https://datos.ins.gob.pe/"</t>
+  </si>
+  <si>
+    <t>Wrong link: https://www.gob.pe/minsa</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>https://www.cnecv.pt/en/opinions/1601021142</t>
+  </si>
+  <si>
+    <t>https://bioethics.go.kr/eng/</t>
+  </si>
+  <si>
+    <t>https://bioethics.go.kr/user/news/notice/search/view/1281
+note korean website appears to have more info than english</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>some documents are scanned in, cannot be translated</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>https://www.health.gov.sk/Clanok?vyzva-na-twinningove-projekty-digital-health-europe
+mentions something about sharing data</t>
+  </si>
+  <si>
+    <t>WEBSITE NOT LOADING</t>
+  </si>
+  <si>
+    <t>http://www.mrc.ac.za/research/ethics/about
+https://www.samrc.ac.za/research/ethics/about</t>
+  </si>
+  <si>
+    <t>WEBSITE DOESN’T WORK</t>
+  </si>
+  <si>
+    <t>Part of the website in english, part in spanish</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Some english sites too</t>
+  </si>
+  <si>
+    <t>WEBSITE OFFLINE</t>
+  </si>
+  <si>
+    <t>Some english languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uncst.go.ug/manage/files/downloads/National_Biobanking_Gudelines(2).pdf
+COVID data sharing
+Data sharing modalities shall be established between the participating partners with the
+mutually agreed position documented in a Data Transfer Agreement. The DOTA shall be
+submitted to the REC and UNCST for final approval. </t>
+  </si>
+  <si>
+    <t>https://www.nuffieldbioethics.org/news/fact-finding-meeting-on-cross-border-data-sharing
+not really talking about data sharing policies…</t>
+  </si>
+  <si>
+    <t>I think this website is now a scam site?</t>
+  </si>
+  <si>
+    <t>https://bioethicsarchive.georgetown.edu/pcsbi/blog/2013/10/23/nih-requests-comment-on-genomic-data-sharing-policy-draft/index.html</t>
+  </si>
+  <si>
+    <t>INACTIVE SINCE 2010</t>
   </si>
 </sst>
 </file>
@@ -1951,6 +2155,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1993,10 +2201,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2347,11 +2551,11 @@
   <dimension ref="A1:AA126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2365,52 +2569,52 @@
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="20" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="21"/>
+      <c r="AA1" s="23"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -2422,13 +2626,13 @@
         <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>38</v>
@@ -2490,7 +2694,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>89</v>
@@ -2499,19 +2703,19 @@
         <v>31</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I3" s="19" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2537,7 +2741,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>92</v>
@@ -2546,19 +2750,19 @@
         <v>31</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2584,7 +2788,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>94</v>
@@ -2597,10 +2801,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2627,7 +2831,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -2639,13 +2843,13 @@
         <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2672,7 +2876,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -2684,16 +2888,16 @@
         <v>100</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2719,7 +2923,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -2732,10 +2936,10 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2762,16 +2966,18 @@
         <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2799,7 +3005,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -2812,13 +3018,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2844,7 +3050,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -2852,17 +3058,17 @@
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>455</v>
+      <c r="E11" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>448</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2889,7 +3095,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -2902,13 +3108,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2934,20 +3140,26 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2973,18 +3185,20 @@
         <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3012,20 +3226,26 @@
         <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="16" t="s">
         <v>116</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3051,20 +3271,26 @@
         <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3090,18 +3316,22 @@
         <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3127,20 +3357,24 @@
         <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="34" t="s">
-        <v>465</v>
+      <c r="I18" s="20" t="s">
+        <v>458</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3166,20 +3400,26 @@
         <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>125</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3205,18 +3445,24 @@
         <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>128</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3242,20 +3488,24 @@
         <v>130</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3281,20 +3531,26 @@
         <v>127</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>132</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="I22" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3320,20 +3576,28 @@
         <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3359,20 +3623,28 @@
         <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="34" t="s">
-        <v>470</v>
+      <c r="F24" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>463</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3398,18 +3670,24 @@
         <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3435,20 +3713,26 @@
         <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="34" t="s">
-        <v>471</v>
+      <c r="G26" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3474,19 +3758,27 @@
         <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>541</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3511,18 +3803,24 @@
         <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>145</v>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>543</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3545,23 +3843,31 @@
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="34" t="s">
-        <v>472</v>
+      <c r="F29" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>465</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3584,23 +3890,29 @@
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3623,21 +3935,29 @@
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3660,23 +3980,29 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="34" t="s">
-        <v>474</v>
+      <c r="G32" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>467</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3699,23 +4025,29 @@
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="I33" s="16" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3738,15 +4070,17 @@
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3773,23 +4107,29 @@
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>162</v>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3812,23 +4152,29 @@
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I36" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3851,23 +4197,31 @@
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I37" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3890,21 +4244,27 @@
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3927,23 +4287,29 @@
     </row>
     <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I39" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3966,23 +4332,29 @@
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="I40" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4005,23 +4377,29 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I41" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4044,23 +4422,27 @@
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4083,23 +4465,29 @@
     </row>
     <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="34" t="s">
-        <v>483</v>
+      <c r="G43" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -4122,21 +4510,27 @@
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>553</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -4159,21 +4553,29 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="F45" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -4196,23 +4598,29 @@
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I46" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -4235,23 +4643,31 @@
     </row>
     <row r="47" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I47" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -4274,23 +4690,29 @@
     </row>
     <row r="48" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I48" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4313,23 +4735,29 @@
     </row>
     <row r="49" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I49" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4352,23 +4780,29 @@
     </row>
     <row r="50" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>200</v>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I50" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4391,23 +4825,29 @@
     </row>
     <row r="51" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I51" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4430,15 +4870,17 @@
     </row>
     <row r="52" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>91</v>
       </c>
@@ -4446,7 +4888,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4469,23 +4911,31 @@
     </row>
     <row r="53" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I53" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4508,23 +4958,27 @@
     </row>
     <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4547,23 +5001,29 @@
     </row>
     <row r="55" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I55" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4586,21 +5046,27 @@
     </row>
     <row r="56" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4623,23 +5089,29 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4662,23 +5134,29 @@
     </row>
     <row r="58" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="I58" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4701,23 +5179,29 @@
     </row>
     <row r="59" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1" t="s">
-        <v>224</v>
+      <c r="D59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I59" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4740,23 +5224,29 @@
     </row>
     <row r="60" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1" t="s">
-        <v>226</v>
+      <c r="D60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>560</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I60" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4779,15 +5269,17 @@
     </row>
     <row r="61" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>91</v>
       </c>
@@ -4816,21 +5308,29 @@
     </row>
     <row r="62" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4853,21 +5353,29 @@
     </row>
     <row r="63" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4890,21 +5398,27 @@
     </row>
     <row r="64" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
-        <v>234</v>
+      <c r="D64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4927,21 +5441,27 @@
     </row>
     <row r="65" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>236</v>
+      <c r="D65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4964,23 +5484,31 @@
     </row>
     <row r="66" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I66" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -5003,23 +5531,31 @@
     </row>
     <row r="67" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="I67" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -5042,21 +5578,27 @@
     </row>
     <row r="68" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -5079,21 +5621,27 @@
     </row>
     <row r="69" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -5116,23 +5664,29 @@
     </row>
     <row r="70" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="I70" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5155,21 +5709,27 @@
     </row>
     <row r="71" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5192,23 +5752,27 @@
     </row>
     <row r="72" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F72" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -5231,23 +5795,29 @@
     </row>
     <row r="73" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="I73" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -5270,23 +5840,29 @@
     </row>
     <row r="74" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="I74" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -5309,21 +5885,27 @@
     </row>
     <row r="75" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -5346,23 +5928,29 @@
     </row>
     <row r="76" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I76" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -5385,23 +5973,29 @@
     </row>
     <row r="77" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="I77" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5424,19 +6018,23 @@
     </row>
     <row r="78" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5461,23 +6059,29 @@
     </row>
     <row r="79" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I79" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5500,23 +6104,29 @@
     </row>
     <row r="80" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
-        <v>276</v>
+      <c r="D80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I80" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -5539,17 +6149,21 @@
     </row>
     <row r="81" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5574,17 +6188,21 @@
     </row>
     <row r="82" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5609,23 +6227,29 @@
     </row>
     <row r="83" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I83" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5648,23 +6272,31 @@
     </row>
     <row r="84" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I84" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -5687,23 +6319,31 @@
     </row>
     <row r="85" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I85" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -5726,21 +6366,27 @@
     </row>
     <row r="86" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -5763,23 +6409,29 @@
     </row>
     <row r="87" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I87" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5802,23 +6454,31 @@
     </row>
     <row r="88" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="I88" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5841,21 +6501,27 @@
     </row>
     <row r="89" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -5878,23 +6544,29 @@
     </row>
     <row r="90" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="34" t="s">
-        <v>513</v>
+      <c r="G90" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>506</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5917,23 +6589,29 @@
     </row>
     <row r="91" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I91" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5956,21 +6634,29 @@
     </row>
     <row r="92" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -5993,23 +6679,31 @@
     </row>
     <row r="93" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="I93" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -6032,21 +6726,27 @@
     </row>
     <row r="94" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D94" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -6069,23 +6769,29 @@
     </row>
     <row r="95" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D95" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E95" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I95" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -6108,23 +6814,29 @@
     </row>
     <row r="96" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D96" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E96" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="I96" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -6147,23 +6859,31 @@
     </row>
     <row r="97" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="I97" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -6186,23 +6906,31 @@
     </row>
     <row r="98" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>584</v>
+      </c>
       <c r="I98" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -6225,23 +6953,31 @@
     </row>
     <row r="99" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="I99" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -6264,23 +7000,29 @@
     </row>
     <row r="100" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I100" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -6303,23 +7045,29 @@
     </row>
     <row r="101" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I101" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -6342,23 +7090,29 @@
     </row>
     <row r="102" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="34" t="s">
-        <v>523</v>
+      <c r="G102" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>516</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -6381,23 +7135,29 @@
     </row>
     <row r="103" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I103" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -6420,23 +7180,29 @@
     </row>
     <row r="104" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D104" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="I104" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -6459,21 +7225,25 @@
     </row>
     <row r="105" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="34" t="s">
-        <v>526</v>
+      <c r="I105" s="20" t="s">
+        <v>519</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -6496,23 +7266,29 @@
     </row>
     <row r="106" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I106" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -6535,23 +7311,31 @@
     </row>
     <row r="107" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="I107" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -6574,23 +7358,27 @@
     </row>
     <row r="108" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>340</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E108" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F108" s="1"/>
+        <v>342</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6613,23 +7401,29 @@
     </row>
     <row r="109" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1" t="s">
-        <v>349</v>
+      <c r="D109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I109" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6652,23 +7446,27 @@
     </row>
     <row r="110" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F110" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>592</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -6691,23 +7489,31 @@
     </row>
     <row r="111" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I111" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -6730,19 +7536,23 @@
     </row>
     <row r="112" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E112" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F112" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>592</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6767,23 +7577,29 @@
     </row>
     <row r="113" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D113" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E113" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="I113" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -6806,23 +7622,31 @@
     </row>
     <row r="114" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E114" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+        <v>355</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="I114" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -6845,23 +7669,27 @@
     </row>
     <row r="115" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F115" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -6884,23 +7712,31 @@
     </row>
     <row r="116" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I116" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -6923,23 +7759,29 @@
     </row>
     <row r="117" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D117" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="I117" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -6962,23 +7804,29 @@
     </row>
     <row r="118" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="I118" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -7001,21 +7849,29 @@
     </row>
     <row r="119" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D119" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+        <v>367</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -7038,16 +7894,20 @@
     </row>
     <row r="120" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+        <v>368</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -7073,23 +7933,31 @@
     </row>
     <row r="121" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E121" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
+        <v>372</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I121" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -7112,19 +7980,23 @@
     </row>
     <row r="122" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D122" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E122" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F122" s="1"/>
+        <v>374</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -7149,23 +8021,29 @@
     </row>
     <row r="123" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D123" s="1"/>
+        <v>375</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E123" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I123" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -7188,23 +8066,25 @@
     </row>
     <row r="124" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D124" s="1"/>
+        <v>378</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E124" s="1" t="s">
-        <v>91</v>
+        <v>535</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -7227,16 +8107,20 @@
     </row>
     <row r="125" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>603</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -7262,21 +8146,29 @@
     </row>
     <row r="126" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D126" s="1"/>
+        <v>381</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E126" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
+        <v>383</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -7306,7 +8198,7 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:I10 D3:H3 D12:I21 D11:E11 G11:I11 D23:I40 D22:H22 D42:I45 D41:H41 D47:I76 D46:H46 D78:I92 D77:H77 D94:I108 D93:H93 D110:I123 D109:H109 D125:I126 D124:H124">
+  <conditionalFormatting sqref="D4:I10 D3:H3 D12:I21 D11:E11 G11:I11 D22:H22 D42:I45 D46:H46 D77:H77 D94:I108 D110:I123 D109:H109 D125:I126 D124:H124 D23:I40 D41:H41 D47:I76 D78:I92 D93:H93">
     <cfRule type="notContainsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
@@ -7334,9 +8226,62 @@
     <hyperlink ref="E12" r:id="rId9" xr:uid="{BC8BFE75-47FC-4A47-8C3D-F5D7136A15B9}"/>
     <hyperlink ref="E15" r:id="rId10" xr:uid="{75EB3B21-C95F-4A7D-9123-A2E7AF9548AC}"/>
     <hyperlink ref="I33" r:id="rId11" xr:uid="{F8E16229-9F54-4C88-B479-18AD577EC62B}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{09ED219B-3855-492A-B076-00825B5B7AAA}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{6A25AEC8-3886-422B-8856-AEEFBA82D4CC}"/>
+    <hyperlink ref="E20" r:id="rId14" xr:uid="{D0682DA6-0612-487F-BC9E-14491FC7F6AD}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{41488668-39DB-4CC2-B959-44DC6FD945C1}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{CDA89036-3A0D-4DDB-BE32-0FBF568B13FC}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{AD060DB4-53E4-4F25-BBCD-5C4F0A40F164}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{75085288-A155-4D42-8EBC-BE9B890897D1}"/>
+    <hyperlink ref="E26" r:id="rId19" xr:uid="{2D22F92E-0CF3-41EF-BE99-8DAFB01A3E91}"/>
+    <hyperlink ref="E27" r:id="rId20" xr:uid="{537CC96A-5FDD-4BF8-832D-7DBBE054A09C}"/>
+    <hyperlink ref="E28" r:id="rId21" display="https://www.ministeriodesalud.go.cr/index.php/consejos/conis" xr:uid="{7A7808F7-8AFB-4D85-9FE5-34EE592CDDAC}"/>
+    <hyperlink ref="E29" r:id="rId22" xr:uid="{173ED227-9E2F-4453-A211-B54FDF2EC928}"/>
+    <hyperlink ref="E30" r:id="rId23" xr:uid="{0FA111C3-A77F-40E2-BC18-E301D5F7DB0C}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{6CADC130-BA8C-43DE-9BE8-D8D1D297E2A8}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{CCD34670-F19B-4B58-8E88-DD383400E608}"/>
+    <hyperlink ref="E35" r:id="rId26" xr:uid="{0002E782-4D15-45AE-B8FA-AFD979D6A11C}"/>
+    <hyperlink ref="E37" r:id="rId27" xr:uid="{D301C21E-5A85-40F7-9620-FEDC1DB95AF2}"/>
+    <hyperlink ref="E38" r:id="rId28" xr:uid="{9CCBD1BB-8A43-4662-938E-433505C4DBF7}"/>
+    <hyperlink ref="E41" r:id="rId29" xr:uid="{ADAA6A35-10F0-46DA-98F0-B7E8AA729228}"/>
+    <hyperlink ref="E42" r:id="rId30" xr:uid="{ABF1E118-5DB5-40ED-A2BE-0103837300FF}"/>
+    <hyperlink ref="E43" r:id="rId31" xr:uid="{2D2DBADF-ED34-42D7-8AC2-0C2E8397DB1D}"/>
+    <hyperlink ref="E45" r:id="rId32" xr:uid="{A20900BF-7687-460D-BA51-A0F3D0D2B326}"/>
+    <hyperlink ref="E47" r:id="rId33" xr:uid="{7DD5A537-91D3-42DE-B65B-D847B37E48EA}"/>
+    <hyperlink ref="E49" r:id="rId34" xr:uid="{16ECFDE0-ADD6-46FA-9040-C3E52D5FA115}"/>
+    <hyperlink ref="E50" r:id="rId35" xr:uid="{4B73BC28-57A8-43B1-BEFC-820F3361EB95}"/>
+    <hyperlink ref="E51" r:id="rId36" xr:uid="{7C3BEA0A-29CF-43A6-942F-C0E0A73867EA}"/>
+    <hyperlink ref="E54" r:id="rId37" xr:uid="{E32283FC-2CBF-440A-B96D-F68C64CCE4EE}"/>
+    <hyperlink ref="E55" r:id="rId38" xr:uid="{EB4C7778-1747-4777-B14A-71E516AFAED3}"/>
+    <hyperlink ref="E56" r:id="rId39" xr:uid="{28DFED8C-EB22-46D8-8078-3C204D22D95E}"/>
+    <hyperlink ref="E58" r:id="rId40" xr:uid="{2FCB75ED-7143-4A32-92D7-0039372BDC5B}"/>
+    <hyperlink ref="E59" r:id="rId41" xr:uid="{AAE21106-166A-4464-9149-A1D2791BBB78}"/>
+    <hyperlink ref="E60" r:id="rId42" display="http://dbtindia.gov.in/genesis-and-implementation" xr:uid="{DE38C2DC-72C6-46FE-AB05-93A15AE35C34}"/>
+    <hyperlink ref="E63" r:id="rId43" xr:uid="{87EC58BD-829C-4426-B727-4A22AFB606FA}"/>
+    <hyperlink ref="E64" r:id="rId44" xr:uid="{D3E44E12-1C6C-48B9-B3DB-495AF5C4C75A}"/>
+    <hyperlink ref="E65" r:id="rId45" xr:uid="{7DADDD9A-7B76-4892-A802-F71A8B7E4985}"/>
+    <hyperlink ref="E66" r:id="rId46" xr:uid="{EC3992CF-8DD0-4B43-BB4C-48CAAC5B1E35}"/>
+    <hyperlink ref="E67" r:id="rId47" xr:uid="{48EC968B-E952-4B0A-BC8C-8D74C59A916A}"/>
+    <hyperlink ref="E68" r:id="rId48" xr:uid="{6EA136C2-A257-47A5-920F-29BE18EA4697}"/>
+    <hyperlink ref="E69" r:id="rId49" xr:uid="{BDB664FC-18B1-428F-B2D3-70F12DC48787}"/>
+    <hyperlink ref="E70" r:id="rId50" xr:uid="{87E083B3-64EE-4E9B-97DB-0CA212415AFB}"/>
+    <hyperlink ref="E72" r:id="rId51" xr:uid="{4D0B9684-F1B6-46B9-BCC7-1B7CE5A429AB}"/>
+    <hyperlink ref="E75" r:id="rId52" xr:uid="{CD0C431D-B0A8-43AC-829A-3C0E6F291643}"/>
+    <hyperlink ref="E76" r:id="rId53" xr:uid="{30CCAE07-EFA3-40B3-BA95-3A8B8AFD96EE}"/>
+    <hyperlink ref="E77" r:id="rId54" xr:uid="{0EDEBA18-D7FA-46FA-B983-280DA720797B}"/>
+    <hyperlink ref="E79" r:id="rId55" xr:uid="{CE14C404-C8BC-420B-8E0F-0C788FF99831}"/>
+    <hyperlink ref="E80" r:id="rId56" xr:uid="{0930A0FC-941F-490A-A705-C6E46CD3833C}"/>
+    <hyperlink ref="E83" r:id="rId57" xr:uid="{75EA4BA5-3405-4625-8936-CB75B4491D4F}"/>
+    <hyperlink ref="E84" r:id="rId58" display="https://www.healthcouncil.nl/" xr:uid="{AB28717D-9D11-4B2A-938A-59FC64218048}"/>
+    <hyperlink ref="F85" r:id="rId59" display="https://neac.health.govt.nz/national-ethical-standards/part-two/12-health-data/" xr:uid="{678E8206-B4C7-430E-943E-F9EA1C5F9B2E}"/>
+    <hyperlink ref="E87" r:id="rId60" xr:uid="{DAF01D66-E272-4EF2-BF54-983A1B1B143B}"/>
+    <hyperlink ref="F98" r:id="rId61" xr:uid="{DF569805-0749-4AF2-A974-BF617DC96AF2}"/>
+    <hyperlink ref="F107" r:id="rId62" xr:uid="{3F13ADCE-0943-4634-A091-9F5B44A83DC4}"/>
+    <hyperlink ref="F119" r:id="rId63" display="https://www.uncst.go.ug/manage/files/downloads/National_Biobanking_Gudelines(2).pdf_x000a_COVID data sharing_x000a_Data sharing modalities shall be established between the participating partners with the_x000a_mutually agreed position documented in a Data Transfer Agreement. The DOTA shall be_x000a_submitted to the REC and UNCST for final approval. " xr:uid="{1E45BCDB-56C1-404E-8E1B-3F9A6B07A37C}"/>
+    <hyperlink ref="F121" r:id="rId64" xr:uid="{26DE0A2F-377F-42FC-86D9-32B3D483F023}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
@@ -7398,7 +8343,7 @@
           <x14:formula1>
             <xm:f>Variables!$C$7:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G126</xm:sqref>
+          <xm:sqref>G3:G60 G62:G126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7416,7 +8361,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7426,13 +8371,13 @@
         <v>30</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7491,10 +8436,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="13"/>
       <c r="C3" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7554,7 +8499,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7584,7 +8529,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7609,18 +8554,18 @@
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7628,7 +8573,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>51</v>
@@ -7716,13 +8661,13 @@
         <v>39</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7752,7 +8697,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7808,7 +8753,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>57</v>
@@ -8008,13 +8953,13 @@
         <v>41</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -8070,7 +9015,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>65</v>
@@ -8106,7 +9051,7 @@
         <v>66</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -8162,7 +9107,7 @@
         <v>44</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>67</v>
@@ -8198,7 +9143,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -8254,13 +9199,13 @@
         <v>46</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -8290,7 +9235,7 @@
         <v>70</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -8320,7 +9265,7 @@
         <v>71</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -8380,7 +9325,7 @@
         <v>73</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -8410,7 +9355,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -8440,7 +9385,7 @@
         <v>75</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -8496,7 +9441,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>77</v>
@@ -8532,7 +9477,7 @@
         <v>70</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -8562,7 +9507,7 @@
         <v>78</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -8592,7 +9537,7 @@
         <v>79</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -8622,7 +9567,7 @@
         <v>73</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -8652,7 +9597,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -8682,7 +9627,7 @@
         <v>81</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -8738,13 +9683,13 @@
         <v>50</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -8774,7 +9719,7 @@
         <v>83</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -8804,7 +9749,7 @@
         <v>84</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -8834,7 +9779,7 @@
         <v>85</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -8864,7 +9809,7 @@
         <v>86</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -8894,7 +9839,7 @@
         <v>87</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -8924,7 +9869,7 @@
         <v>88</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
